--- a/Output/Test/Benchmarks.xlsx
+++ b/Output/Test/Benchmarks.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sophi\Antarctic-Food-Optimisation\Documentation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sophi\Antarctic-Food-Optimisation\Output\Test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85C550C0-E5E0-4EF2-9F68-D5D266B4F764}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E914111-BA03-48E9-9531-C4D8B94753BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{472969AF-E492-4476-AC40-D4572065F633}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="121">
   <si>
     <t>cals</t>
   </si>
@@ -384,6 +384,21 @@
   <si>
     <t>summer average</t>
   </si>
+  <si>
+    <t>excess food</t>
+  </si>
+  <si>
+    <t>emissions / CO2e</t>
+  </si>
+  <si>
+    <t>scaled sum</t>
+  </si>
+  <si>
+    <t>sum</t>
+  </si>
+  <si>
+    <t>improved over time</t>
+  </si>
 </sst>
 </file>
 
@@ -747,6 +762,502 @@
           </a:p>
         </c:txPr>
         <c:crossAx val="411971263"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Scaled sum of all objectives from different objective function</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> expressions</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$134</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>scaled sum</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$B$132:$K$132</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>cost + emissions + cals</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>emissions</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>cals</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>cost</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>cost + emissions + cals * 100 </c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>cost + emissions*10 + cals * 1000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>cost*10 + emissions + cals*100</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>cost*10 + emissions + cals*1000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>sum(nutritionServed)</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>cost + emissions + sum(nutrition)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$134:$K$134</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>4491.1900000000005</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5468.2978723404258</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5161.3191489361707</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5476.9361702127662</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5490.510638297872</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5296.3404255319147</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5490.510638297872</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5313.9787234042551</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5500.5531914893618</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5490.6808510638293</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-8850-471A-96B5-1100099499C4}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="551595088"/>
+        <c:axId val="551598832"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="551595088"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Objective</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-GB" baseline="0"/>
+                  <a:t> function</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-GB"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.38119313210848649"/>
+              <c:y val="0.91741938945803703"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="551598832"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="551598832"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Scaled</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-GB" baseline="0"/>
+                  <a:t> sum of all objective values </a:t>
+                </a:r>
+                <a:endParaRPr lang="en-GB"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="2.7777777777777776E-2"/>
+              <c:y val="0.14474928287852651"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="551595088"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2962,7 +3473,753 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB"/>
+              <a:t>Objective</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-GB" baseline="0"/>
+              <a:t> values p</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-GB"/>
+              <a:t>er person, per day of different sized datasets</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$AA$158</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>cost / £</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$AB$157:$AJ$157</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>104</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>204</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>511</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1037</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1568</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2149</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2657</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3075</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3505</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$AB$158:$AJ$158</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>8.1826923076923084</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8.9264705882352935</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9.0352250489236798</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.721311475409836</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8.9974489795918373</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8.8371335504886002</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8.8656379375235232</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>9.0715447154471551</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8.9495007132667617</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-A70D-43C6-8376-0B3A5AE75B29}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$AA$159</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>emissions / CO2e</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$AB$157:$AJ$157</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>104</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>204</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>511</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1037</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1568</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2149</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2657</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3075</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3505</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$AB$159:$AJ$159</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>8.3173076923076916</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8.0686274509803919</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.7162426614481401</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.3259402121504333</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7.7882653061224492</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8.274546300604932</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8.0726383138878433</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8.3915447154471536</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8.2550641940085594</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-A70D-43C6-8376-0B3A5AE75B29}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$AA$160</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>excess food</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$AB$157:$AJ$157</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>104</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>204</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>511</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1037</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1568</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2149</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2657</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3075</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3505</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$AB$160:$AJ$160</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>5.639326923076923</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.8981862745098037</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.5627592954990219</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.8719382835101253</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.9364221938775512</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.5536063285248951</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4.1586036883703423</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.3792390243902442</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4.2520485021398002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-A70D-43C6-8376-0B3A5AE75B29}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="551441296"/>
+        <c:axId val="551443376"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="551441296"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Data</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-GB" baseline="0"/>
+                  <a:t> matrix size</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-GB"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="551443376"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="551443376"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="551441296"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors10.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -3282,6 +4539,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors9.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
@@ -3785,7 +5082,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style10.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -4288,7 +5585,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -4791,7 +6088,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -5294,7 +6591,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -5797,7 +7094,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -6300,7 +7597,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -6803,8 +8100,8 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="297">
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -7008,6 +8305,509 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="297">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
@@ -7289,6 +9089,522 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style9.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:valueAxis>
   <cs:wall>
@@ -7564,16 +9880,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>19880</xdr:colOff>
-      <xdr:row>147</xdr:row>
-      <xdr:rowOff>172278</xdr:rowOff>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>119271</xdr:colOff>
+      <xdr:row>148</xdr:row>
+      <xdr:rowOff>26504</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>324680</xdr:colOff>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>424071</xdr:colOff>
       <xdr:row>162</xdr:row>
-      <xdr:rowOff>132522</xdr:rowOff>
+      <xdr:rowOff>172278</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -7593,6 +9909,78 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId8"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>496956</xdr:colOff>
+      <xdr:row>148</xdr:row>
+      <xdr:rowOff>53008</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>192156</xdr:colOff>
+      <xdr:row>163</xdr:row>
+      <xdr:rowOff>13251</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="16" name="Chart 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A2012DC6-98B5-9F27-866D-634DDF160CA4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId9"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>99392</xdr:colOff>
+      <xdr:row>117</xdr:row>
+      <xdr:rowOff>172278</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>324679</xdr:colOff>
+      <xdr:row>138</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="19" name="Chart 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{828DD3FE-ACBD-555F-EE9A-EB5034EF332C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId10"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -7898,10 +10286,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{640751DF-F8E9-40E7-8456-464868000FDC}">
-  <dimension ref="A1:V180"/>
+  <dimension ref="A1:AJ180"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A165" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="O190" sqref="O190"/>
+    <sheetView tabSelected="1" topLeftCell="T149" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="AC168" sqref="AC168"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -10251,212 +12639,294 @@
       </c>
     </row>
     <row r="130" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A130">
-        <v>20</v>
-      </c>
-      <c r="B130" t="s">
-        <v>69</v>
+      <c r="D130" s="1" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="131" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="D131" s="1" t="s">
-        <v>81</v>
+      <c r="A131" t="s">
+        <v>73</v>
+      </c>
+      <c r="B131" t="s">
+        <v>70</v>
+      </c>
+      <c r="D131" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="132" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
-        <v>73</v>
+        <v>25</v>
       </c>
       <c r="B132" t="s">
-        <v>70</v>
+        <v>71</v>
+      </c>
+      <c r="C132" t="s">
+        <v>27</v>
       </c>
       <c r="D132" t="s">
-        <v>72</v>
+        <v>0</v>
+      </c>
+      <c r="E132" t="s">
+        <v>26</v>
+      </c>
+      <c r="F132" t="s">
+        <v>75</v>
+      </c>
+      <c r="G132" t="s">
+        <v>74</v>
+      </c>
+      <c r="H132" t="s">
+        <v>76</v>
+      </c>
+      <c r="I132" t="s">
+        <v>77</v>
+      </c>
+      <c r="J132" t="s">
+        <v>78</v>
+      </c>
+      <c r="K132" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="133" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
-        <v>25</v>
-      </c>
-      <c r="B133" t="s">
-        <v>71</v>
-      </c>
-      <c r="C133" t="s">
-        <v>27</v>
-      </c>
-      <c r="D133" t="s">
-        <v>0</v>
-      </c>
-      <c r="E133" t="s">
-        <v>26</v>
-      </c>
-      <c r="F133" t="s">
-        <v>75</v>
-      </c>
-      <c r="G133" t="s">
-        <v>74</v>
-      </c>
-      <c r="H133" t="s">
-        <v>76</v>
-      </c>
-      <c r="I133" t="s">
-        <v>77</v>
-      </c>
-      <c r="J133" t="s">
-        <v>78</v>
-      </c>
-      <c r="K133" t="s">
-        <v>79</v>
+        <v>119</v>
+      </c>
+      <c r="B133">
+        <f>SUM(B135:B137)</f>
+        <v>92224</v>
+      </c>
+      <c r="C133">
+        <f>SUM(C135:C137)</f>
+        <v>91180</v>
+      </c>
+      <c r="D133">
+        <f>SUM(D135:D137)</f>
+        <v>73256</v>
+      </c>
+      <c r="E133">
+        <f>SUM(E135:E137)</f>
+        <v>90390</v>
+      </c>
+      <c r="F133">
+        <f>SUM(F135:F137)</f>
+        <v>92224</v>
+      </c>
+      <c r="G133">
+        <f>SUM(G135:G137)</f>
+        <v>81672</v>
+      </c>
+      <c r="H133">
+        <f>SUM(H135:H137)</f>
+        <v>92224</v>
+      </c>
+      <c r="I133">
+        <f>SUM(I135:I137)</f>
+        <v>81397</v>
+      </c>
+      <c r="J133">
+        <f>SUM(J135:J137)</f>
+        <v>91270</v>
+      </c>
+      <c r="K133">
+        <f>SUM(K135:K137)</f>
+        <v>92094</v>
       </c>
     </row>
     <row r="134" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
-        <v>50</v>
+        <v>118</v>
       </c>
       <c r="B134">
-        <v>1768</v>
+        <f>B135+B136+(B137/100)</f>
+        <v>4491.1900000000005</v>
       </c>
       <c r="C134">
-        <v>1768</v>
+        <f t="shared" ref="C134:K134" si="4">C135+C136+(C137/47)</f>
+        <v>5468.2978723404258</v>
       </c>
       <c r="D134">
-        <v>1790</v>
+        <f t="shared" si="4"/>
+        <v>5161.3191489361707</v>
       </c>
       <c r="E134">
-        <v>1766</v>
+        <f t="shared" si="4"/>
+        <v>5476.9361702127662</v>
       </c>
       <c r="F134">
-        <v>1768</v>
+        <f t="shared" si="4"/>
+        <v>5490.510638297872</v>
       </c>
       <c r="G134">
-        <v>1806</v>
+        <f t="shared" si="4"/>
+        <v>5296.3404255319147</v>
       </c>
       <c r="H134">
-        <v>1768</v>
+        <f t="shared" si="4"/>
+        <v>5490.510638297872</v>
       </c>
       <c r="I134">
-        <v>1773</v>
+        <f t="shared" si="4"/>
+        <v>5313.9787234042551</v>
       </c>
       <c r="J134">
-        <v>1768</v>
+        <f t="shared" si="4"/>
+        <v>5500.5531914893618</v>
       </c>
       <c r="K134">
-        <v>1771</v>
+        <f t="shared" si="4"/>
+        <v>5490.6808510638293</v>
       </c>
     </row>
     <row r="135" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B135">
-        <v>1837</v>
+        <v>1768</v>
       </c>
       <c r="C135">
-        <v>1837</v>
+        <v>1768</v>
       </c>
       <c r="D135">
-        <v>1913</v>
+        <v>1768</v>
       </c>
       <c r="E135">
-        <v>1863</v>
+        <v>1768</v>
       </c>
       <c r="F135">
-        <v>1837</v>
+        <v>1768</v>
       </c>
       <c r="G135">
-        <v>1868</v>
+        <v>1768</v>
       </c>
       <c r="H135">
-        <v>1837</v>
+        <v>1768</v>
       </c>
       <c r="I135">
-        <v>1892</v>
+        <v>1768</v>
       </c>
       <c r="J135">
-        <v>1868</v>
+        <v>1768</v>
       </c>
       <c r="K135">
-        <v>1840</v>
+        <v>1768</v>
       </c>
     </row>
     <row r="136" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B136">
-        <v>88619</v>
+        <v>1837</v>
       </c>
       <c r="C136">
-        <v>87575</v>
+        <v>1837</v>
       </c>
       <c r="D136">
-        <v>69575</v>
+        <v>1913</v>
       </c>
       <c r="E136">
-        <v>86759</v>
+        <v>1863</v>
       </c>
       <c r="F136">
-        <v>88619</v>
+        <v>1837</v>
       </c>
       <c r="G136">
-        <v>78036</v>
+        <v>1868</v>
       </c>
       <c r="H136">
-        <v>88619</v>
+        <v>1837</v>
       </c>
       <c r="I136">
-        <v>77737</v>
+        <v>1892</v>
       </c>
       <c r="J136">
-        <v>87634</v>
+        <v>1868</v>
       </c>
       <c r="K136">
-        <v>88486</v>
+        <v>1840</v>
       </c>
     </row>
     <row r="137" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
+        <v>52</v>
+      </c>
+      <c r="B137">
+        <v>88619</v>
+      </c>
+      <c r="C137">
+        <v>87575</v>
+      </c>
+      <c r="D137">
+        <v>69575</v>
+      </c>
+      <c r="E137">
+        <v>86759</v>
+      </c>
+      <c r="F137">
+        <v>88619</v>
+      </c>
+      <c r="G137">
+        <v>78036</v>
+      </c>
+      <c r="H137">
+        <v>88619</v>
+      </c>
+      <c r="I137">
+        <v>77737</v>
+      </c>
+      <c r="J137">
+        <v>87634</v>
+      </c>
+      <c r="K137">
+        <v>88486</v>
+      </c>
+    </row>
+    <row r="138" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A138" t="s">
         <v>80</v>
       </c>
-      <c r="B137">
-        <f>AVERAGE(B136/47, B135, B134)</f>
+      <c r="B138">
+        <f>AVERAGE(B137/47, B136, B135)</f>
         <v>1830.1702127659573</v>
       </c>
-      <c r="C137">
-        <f t="shared" ref="C137:K137" si="4">AVERAGE(C136/47, C135, C134)</f>
+      <c r="C138">
+        <f t="shared" ref="C138:K138" si="5">AVERAGE(C137/47, C136, C135)</f>
         <v>1822.7659574468087</v>
       </c>
-      <c r="D137">
-        <f t="shared" si="4"/>
-        <v>1727.7730496453903</v>
-      </c>
-      <c r="E137">
-        <f t="shared" si="4"/>
-        <v>1824.9787234042553</v>
-      </c>
-      <c r="F137">
-        <f t="shared" si="4"/>
+      <c r="D138">
+        <f t="shared" si="5"/>
+        <v>1720.4397163120568</v>
+      </c>
+      <c r="E138">
+        <f t="shared" si="5"/>
+        <v>1825.6453900709221</v>
+      </c>
+      <c r="F138">
+        <f t="shared" si="5"/>
         <v>1830.1702127659573</v>
       </c>
-      <c r="G137">
-        <f t="shared" si="4"/>
-        <v>1778.113475177305</v>
-      </c>
-      <c r="H137">
-        <f t="shared" si="4"/>
+      <c r="G138">
+        <f t="shared" si="5"/>
+        <v>1765.4468085106382</v>
+      </c>
+      <c r="H138">
+        <f t="shared" si="5"/>
         <v>1830.1702127659573</v>
       </c>
-      <c r="I137">
-        <f t="shared" si="4"/>
-        <v>1772.9929078014184</v>
-      </c>
-      <c r="J137">
-        <f t="shared" si="4"/>
+      <c r="I138">
+        <f t="shared" si="5"/>
+        <v>1771.3262411347516</v>
+      </c>
+      <c r="J138">
+        <f t="shared" si="5"/>
         <v>1833.5177304964539</v>
       </c>
-      <c r="K137">
-        <f t="shared" si="4"/>
-        <v>1831.2269503546097</v>
+      <c r="K138">
+        <f t="shared" si="5"/>
+        <v>1830.2269503546097</v>
       </c>
     </row>
     <row r="140" spans="1:15" x14ac:dyDescent="0.3">
@@ -10658,9 +13128,9 @@
         <v>93</v>
       </c>
     </row>
-    <row r="145" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
-        <v>88</v>
+        <v>120</v>
       </c>
       <c r="B145" s="7" t="s">
         <v>89</v>
@@ -10705,7 +13175,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="146" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
         <v>50</v>
       </c>
@@ -10761,7 +13231,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="147" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
         <v>51</v>
       </c>
@@ -10826,7 +13296,7 @@
         <v>1766</v>
       </c>
     </row>
-    <row r="148" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
         <v>85</v>
       </c>
@@ -10891,7 +13361,7 @@
         <v>1863</v>
       </c>
     </row>
-    <row r="149" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
         <v>90</v>
       </c>
@@ -10968,7 +13438,7 @@
         <v>867</v>
       </c>
     </row>
-    <row r="150" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
         <v>91</v>
       </c>
@@ -11027,7 +13497,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="151" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
         <v>92</v>
       </c>
@@ -11086,7 +13556,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="154" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
         <v>25</v>
       </c>
@@ -11100,7 +13570,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="155" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
         <v>106</v>
       </c>
@@ -11141,7 +13611,7 @@
         <v>6085</v>
       </c>
     </row>
-    <row r="156" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
         <v>50</v>
       </c>
@@ -11182,7 +13652,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="157" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
         <v>51</v>
       </c>
@@ -11222,8 +13692,38 @@
       <c r="M157" t="s">
         <v>45</v>
       </c>
+      <c r="AA157" t="s">
+        <v>106</v>
+      </c>
+      <c r="AB157">
+        <v>104</v>
+      </c>
+      <c r="AC157">
+        <v>204</v>
+      </c>
+      <c r="AD157">
+        <v>511</v>
+      </c>
+      <c r="AE157">
+        <v>1037</v>
+      </c>
+      <c r="AF157">
+        <v>1568</v>
+      </c>
+      <c r="AG157">
+        <v>2149</v>
+      </c>
+      <c r="AH157">
+        <v>2657</v>
+      </c>
+      <c r="AI157">
+        <v>3075</v>
+      </c>
+      <c r="AJ157">
+        <v>3505</v>
+      </c>
     </row>
-    <row r="158" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
         <v>85</v>
       </c>
@@ -11263,8 +13763,47 @@
       <c r="M158" t="s">
         <v>45</v>
       </c>
+      <c r="AA158" t="s">
+        <v>24</v>
+      </c>
+      <c r="AB158">
+        <f>851/104</f>
+        <v>8.1826923076923084</v>
+      </c>
+      <c r="AC158">
+        <f>1821/204</f>
+        <v>8.9264705882352935</v>
+      </c>
+      <c r="AD158">
+        <f>4617/511</f>
+        <v>9.0352250489236798</v>
+      </c>
+      <c r="AE158">
+        <f>9044/1037</f>
+        <v>8.721311475409836</v>
+      </c>
+      <c r="AF158">
+        <f>14108/1568</f>
+        <v>8.9974489795918373</v>
+      </c>
+      <c r="AG158">
+        <f>18991/2149</f>
+        <v>8.8371335504886002</v>
+      </c>
+      <c r="AH158">
+        <f>23556/2657</f>
+        <v>8.8656379375235232</v>
+      </c>
+      <c r="AI158">
+        <f>27895/3075</f>
+        <v>9.0715447154471551</v>
+      </c>
+      <c r="AJ158">
+        <f>31368/3505</f>
+        <v>8.9495007132667617</v>
+      </c>
     </row>
-    <row r="159" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
         <v>90</v>
       </c>
@@ -11313,8 +13852,47 @@
       <c r="M159" t="s">
         <v>45</v>
       </c>
+      <c r="AA159" t="s">
+        <v>117</v>
+      </c>
+      <c r="AB159">
+        <f>865/104</f>
+        <v>8.3173076923076916</v>
+      </c>
+      <c r="AC159">
+        <f>1646/204</f>
+        <v>8.0686274509803919</v>
+      </c>
+      <c r="AD159">
+        <f>4454/511</f>
+        <v>8.7162426614481401</v>
+      </c>
+      <c r="AE159">
+        <f>8634/1037</f>
+        <v>8.3259402121504333</v>
+      </c>
+      <c r="AF159">
+        <f>12212/1568</f>
+        <v>7.7882653061224492</v>
+      </c>
+      <c r="AG159">
+        <f>17782/2149</f>
+        <v>8.274546300604932</v>
+      </c>
+      <c r="AH159">
+        <f>21449/2657</f>
+        <v>8.0726383138878433</v>
+      </c>
+      <c r="AI159">
+        <f>25804/3075</f>
+        <v>8.3915447154471536</v>
+      </c>
+      <c r="AJ159">
+        <f>28934/3505</f>
+        <v>8.2550641940085594</v>
+      </c>
     </row>
-    <row r="160" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
         <v>91</v>
       </c>
@@ -11362,6 +13940,45 @@
       </c>
       <c r="M160" t="s">
         <v>45</v>
+      </c>
+      <c r="AA160" t="s">
+        <v>116</v>
+      </c>
+      <c r="AB160">
+        <f>58649/104/100</f>
+        <v>5.639326923076923</v>
+      </c>
+      <c r="AC160">
+        <f>79523/204/100</f>
+        <v>3.8981862745098037</v>
+      </c>
+      <c r="AD160">
+        <f>182057/511/100</f>
+        <v>3.5627592954990219</v>
+      </c>
+      <c r="AE160">
+        <f>401520/1037/100</f>
+        <v>3.8719382835101253</v>
+      </c>
+      <c r="AF160">
+        <f>617231/1568/100</f>
+        <v>3.9364221938775512</v>
+      </c>
+      <c r="AG160">
+        <f>763670/2149/100</f>
+        <v>3.5536063285248951</v>
+      </c>
+      <c r="AH160">
+        <f>1104941/2657/100</f>
+        <v>4.1586036883703423</v>
+      </c>
+      <c r="AI160">
+        <f>1039116/3075/100</f>
+        <v>3.3792390243902442</v>
+      </c>
+      <c r="AJ160">
+        <f>1490343/3505/100</f>
+        <v>4.2520485021398002</v>
       </c>
     </row>
     <row r="161" spans="1:14" x14ac:dyDescent="0.3">
@@ -11704,7 +14321,7 @@
         <v>8.6629150086960269</v>
       </c>
       <c r="M169">
-        <f t="shared" ref="M169:M170" si="5">AVERAGE(B169:H169)</f>
+        <f t="shared" ref="M169:M170" si="6">AVERAGE(B169:H169)</f>
         <v>8.76493511931948</v>
       </c>
       <c r="N169">
@@ -11757,7 +14374,7 @@
         <v>313.04202032959711</v>
       </c>
       <c r="M170">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>306.97901769563259</v>
       </c>
       <c r="N170">
@@ -11769,10 +14386,10 @@
       <c r="A172" t="s">
         <v>109</v>
       </c>
+      <c r="H172" t="s">
+        <v>112</v>
+      </c>
       <c r="I172" t="s">
-        <v>112</v>
-      </c>
-      <c r="J172" t="s">
         <v>112</v>
       </c>
     </row>
@@ -11796,15 +14413,12 @@
         <v>5</v>
       </c>
       <c r="G173">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H173">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I173">
-        <v>8</v>
-      </c>
-      <c r="J173">
         <v>9</v>
       </c>
     </row>
@@ -11828,18 +14442,15 @@
         <v>3154</v>
       </c>
       <c r="G174">
-        <v>3077</v>
+        <v>3026</v>
       </c>
       <c r="H174">
-        <v>3026</v>
+        <v>3012</v>
       </c>
       <c r="I174">
-        <v>3012</v>
-      </c>
-      <c r="J174">
         <v>2000</v>
       </c>
-      <c r="K174" t="s">
+      <c r="J174" t="s">
         <v>111</v>
       </c>
     </row>
@@ -11862,17 +14473,17 @@
       <c r="F175">
         <v>30552</v>
       </c>
+      <c r="G175">
+        <v>27287</v>
+      </c>
       <c r="H175">
-        <v>27287</v>
+        <v>29005</v>
       </c>
       <c r="I175">
-        <v>29005</v>
+        <v>20337</v>
       </c>
       <c r="J175">
-        <v>20337</v>
-      </c>
-      <c r="K175">
-        <f>SUM(B175:J175)</f>
+        <f>SUM(B175:I175)</f>
         <v>221477</v>
       </c>
     </row>
@@ -11895,21 +14506,21 @@
       <c r="F176">
         <v>26706</v>
       </c>
+      <c r="G176">
+        <v>24405</v>
+      </c>
       <c r="H176">
-        <v>24405</v>
+        <v>22464</v>
       </c>
       <c r="I176">
-        <v>22464</v>
+        <v>15733</v>
       </c>
       <c r="J176">
-        <v>15733</v>
-      </c>
-      <c r="K176">
-        <f t="shared" ref="K176:K177" si="6">SUM(B176:J176)</f>
+        <f>SUM(B176:I176)</f>
         <v>185530</v>
       </c>
     </row>
-    <row r="177" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
         <v>85</v>
       </c>
@@ -11928,30 +14539,30 @@
       <c r="F177">
         <v>968130</v>
       </c>
+      <c r="G177">
+        <v>1215430</v>
+      </c>
       <c r="H177">
-        <v>1215430</v>
+        <v>1061965</v>
       </c>
       <c r="I177">
-        <v>1061965</v>
+        <v>600977</v>
       </c>
       <c r="J177">
-        <v>600977</v>
-      </c>
-      <c r="K177">
-        <f t="shared" si="6"/>
+        <f>SUM(B177:I177)</f>
         <v>7157917</v>
       </c>
-      <c r="L177" s="8" t="s">
+      <c r="K177" s="8" t="s">
         <v>113</v>
       </c>
+      <c r="L177" t="s">
+        <v>115</v>
+      </c>
       <c r="M177" t="s">
-        <v>115</v>
-      </c>
-      <c r="N177" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="178" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
         <v>90</v>
       </c>
@@ -11975,32 +14586,32 @@
         <f>30552/3154</f>
         <v>9.6867469879518069</v>
       </c>
-      <c r="H178">
+      <c r="G178">
         <f>27287/3026</f>
         <v>9.0175148711169868</v>
       </c>
-      <c r="I178">
+      <c r="H178">
         <f>29005/3012</f>
         <v>9.6298140770252321</v>
       </c>
-      <c r="J178">
+      <c r="I178">
         <f>20337/2000</f>
         <v>10.1685</v>
       </c>
+      <c r="K178">
+        <f>AVERAGE(B178:I178)</f>
+        <v>9.4564215189312737</v>
+      </c>
       <c r="L178">
-        <f>AVERAGE(B178:J178)</f>
-        <v>9.4564215189312737</v>
+        <f>AVERAGE(B178:G178)</f>
+        <v>9.308843012404159</v>
       </c>
       <c r="M178">
-        <f>AVERAGE(B178:H178)</f>
-        <v>9.308843012404159</v>
-      </c>
-      <c r="N178">
-        <f>AVERAGE(I178:J178)</f>
+        <f>AVERAGE(H178:I178)</f>
         <v>9.899157038512616</v>
       </c>
     </row>
-    <row r="179" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
         <v>91</v>
       </c>
@@ -12024,32 +14635,32 @@
         <f>26706/3154</f>
         <v>8.4673430564362722</v>
       </c>
-      <c r="H179">
+      <c r="G179">
         <f>24405/3026</f>
         <v>8.0651024454725704</v>
       </c>
-      <c r="I179">
+      <c r="H179">
         <f>22464/3012</f>
         <v>7.4581673306772904</v>
       </c>
-      <c r="J179">
+      <c r="I179">
         <f>15733/2000</f>
         <v>7.8665000000000003</v>
       </c>
+      <c r="K179">
+        <f>AVERAGE(B179:I179)</f>
+        <v>7.8905282913210879</v>
+      </c>
       <c r="L179">
-        <f>AVERAGE(B179:J179)</f>
-        <v>7.8905282913210879</v>
+        <f>AVERAGE(B179:G179)</f>
+        <v>7.9665931666485683</v>
       </c>
       <c r="M179">
-        <f>AVERAGE(B179:H179)</f>
-        <v>7.9665931666485683</v>
-      </c>
-      <c r="N179">
-        <f t="shared" ref="N179:N180" si="7">AVERAGE(I179:J179)</f>
+        <f t="shared" ref="M179:M180" si="7">AVERAGE(H179:I179)</f>
         <v>7.6623336653386449</v>
       </c>
     </row>
-    <row r="180" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
         <v>92</v>
       </c>
@@ -12073,27 +14684,27 @@
         <f>968130/3154</f>
         <v>306.95307545973367</v>
       </c>
-      <c r="H180">
+      <c r="G180">
         <f>1215430/3026</f>
         <v>401.66226040978188</v>
       </c>
-      <c r="I180">
+      <c r="H180">
         <f>1061965/3012</f>
         <v>352.57802124833995</v>
       </c>
-      <c r="J180">
+      <c r="I180">
         <f>600977/2000</f>
         <v>300.48849999999999</v>
       </c>
+      <c r="K180">
+        <f>AVERAGE(B180:I180)</f>
+        <v>304.78581250683254</v>
+      </c>
       <c r="L180">
-        <f>AVERAGE(B180:J180)</f>
-        <v>304.78581250683254</v>
+        <f>AVERAGE(B180:G180)</f>
+        <v>297.53666313438674</v>
       </c>
       <c r="M180">
-        <f>AVERAGE(B180:H180)</f>
-        <v>297.53666313438674</v>
-      </c>
-      <c r="N180">
         <f t="shared" si="7"/>
         <v>326.53326062417</v>
       </c>

--- a/Output/Test/Benchmarks.xlsx
+++ b/Output/Test/Benchmarks.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sophi\Antarctic-Food-Optimisation\Output\Test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E914111-BA03-48E9-9531-C4D8B94753BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{426EEFDB-1A4B-4B1C-A015-81C244A137B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{472969AF-E492-4476-AC40-D4572065F633}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="130">
   <si>
     <t>cals</t>
   </si>
@@ -398,6 +398,33 @@
   </si>
   <si>
     <t>improved over time</t>
+  </si>
+  <si>
+    <t>packaging</t>
+  </si>
+  <si>
+    <t>cost + emissions + excess food + packaging + variety lack</t>
+  </si>
+  <si>
+    <t>cost + emissions + excess food</t>
+  </si>
+  <si>
+    <t>batch 1, 2m</t>
+  </si>
+  <si>
+    <t>packaging / g per person per day</t>
+  </si>
+  <si>
+    <t>emissions / kg CO2e per person per day</t>
+  </si>
+  <si>
+    <t>cost / £ per person per day</t>
+  </si>
+  <si>
+    <t>excess food / cal per person per day</t>
+  </si>
+  <si>
+    <t>no objective</t>
   </si>
 </sst>
 </file>
@@ -10286,10 +10313,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{640751DF-F8E9-40E7-8456-464868000FDC}">
-  <dimension ref="A1:AJ180"/>
+  <dimension ref="A1:AJ191"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="T149" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="AC168" sqref="AC168"/>
+    <sheetView tabSelected="1" topLeftCell="A176" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="I189" sqref="I189"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -12694,43 +12721,43 @@
         <v>119</v>
       </c>
       <c r="B133">
-        <f>SUM(B135:B137)</f>
+        <f t="shared" ref="B133:K133" si="4">SUM(B135:B137)</f>
         <v>92224</v>
       </c>
       <c r="C133">
-        <f>SUM(C135:C137)</f>
+        <f t="shared" si="4"/>
         <v>91180</v>
       </c>
       <c r="D133">
-        <f>SUM(D135:D137)</f>
+        <f t="shared" si="4"/>
         <v>73256</v>
       </c>
       <c r="E133">
-        <f>SUM(E135:E137)</f>
+        <f t="shared" si="4"/>
         <v>90390</v>
       </c>
       <c r="F133">
-        <f>SUM(F135:F137)</f>
+        <f t="shared" si="4"/>
         <v>92224</v>
       </c>
       <c r="G133">
-        <f>SUM(G135:G137)</f>
+        <f t="shared" si="4"/>
         <v>81672</v>
       </c>
       <c r="H133">
-        <f>SUM(H135:H137)</f>
+        <f t="shared" si="4"/>
         <v>92224</v>
       </c>
       <c r="I133">
-        <f>SUM(I135:I137)</f>
+        <f t="shared" si="4"/>
         <v>81397</v>
       </c>
       <c r="J133">
-        <f>SUM(J135:J137)</f>
+        <f t="shared" si="4"/>
         <v>91270</v>
       </c>
       <c r="K133">
-        <f>SUM(K135:K137)</f>
+        <f t="shared" si="4"/>
         <v>92094</v>
       </c>
     </row>
@@ -12743,39 +12770,39 @@
         <v>4491.1900000000005</v>
       </c>
       <c r="C134">
-        <f t="shared" ref="C134:K134" si="4">C135+C136+(C137/47)</f>
+        <f t="shared" ref="C134:K134" si="5">C135+C136+(C137/47)</f>
         <v>5468.2978723404258</v>
       </c>
       <c r="D134">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>5161.3191489361707</v>
       </c>
       <c r="E134">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>5476.9361702127662</v>
       </c>
       <c r="F134">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>5490.510638297872</v>
       </c>
       <c r="G134">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>5296.3404255319147</v>
       </c>
       <c r="H134">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>5490.510638297872</v>
       </c>
       <c r="I134">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>5313.9787234042551</v>
       </c>
       <c r="J134">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>5500.5531914893618</v>
       </c>
       <c r="K134">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>5490.6808510638293</v>
       </c>
     </row>
@@ -12893,39 +12920,39 @@
         <v>1830.1702127659573</v>
       </c>
       <c r="C138">
-        <f t="shared" ref="C138:K138" si="5">AVERAGE(C137/47, C136, C135)</f>
+        <f t="shared" ref="C138:K138" si="6">AVERAGE(C137/47, C136, C135)</f>
         <v>1822.7659574468087</v>
       </c>
       <c r="D138">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1720.4397163120568</v>
       </c>
       <c r="E138">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1825.6453900709221</v>
       </c>
       <c r="F138">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1830.1702127659573</v>
       </c>
       <c r="G138">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1765.4468085106382</v>
       </c>
       <c r="H138">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1830.1702127659573</v>
       </c>
       <c r="I138">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1771.3262411347516</v>
       </c>
       <c r="J138">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1833.5177304964539</v>
       </c>
       <c r="K138">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1830.2269503546097</v>
       </c>
     </row>
@@ -14321,7 +14348,7 @@
         <v>8.6629150086960269</v>
       </c>
       <c r="M169">
-        <f t="shared" ref="M169:M170" si="6">AVERAGE(B169:H169)</f>
+        <f t="shared" ref="M169:M170" si="7">AVERAGE(B169:H169)</f>
         <v>8.76493511931948</v>
       </c>
       <c r="N169">
@@ -14374,7 +14401,7 @@
         <v>313.04202032959711</v>
       </c>
       <c r="M170">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>306.97901769563259</v>
       </c>
       <c r="N170">
@@ -14656,7 +14683,7 @@
         <v>7.9665931666485683</v>
       </c>
       <c r="M179">
-        <f t="shared" ref="M179:M180" si="7">AVERAGE(H179:I179)</f>
+        <f t="shared" ref="M179:M180" si="8">AVERAGE(H179:I179)</f>
         <v>7.6623336653386449</v>
       </c>
     </row>
@@ -14705,8 +14732,270 @@
         <v>297.53666313438674</v>
       </c>
       <c r="M180">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>326.53326062417</v>
+      </c>
+    </row>
+    <row r="183" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A183" t="s">
+        <v>124</v>
+      </c>
+      <c r="B183" t="s">
+        <v>129</v>
+      </c>
+      <c r="C183" t="s">
+        <v>26</v>
+      </c>
+      <c r="D183" t="s">
+        <v>27</v>
+      </c>
+      <c r="E183" t="s">
+        <v>116</v>
+      </c>
+      <c r="F183" t="s">
+        <v>121</v>
+      </c>
+      <c r="G183" t="s">
+        <v>123</v>
+      </c>
+      <c r="H183" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="184" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A184" t="s">
+        <v>26</v>
+      </c>
+      <c r="B184">
+        <v>27160</v>
+      </c>
+      <c r="C184">
+        <v>27094</v>
+      </c>
+      <c r="D184">
+        <v>27173</v>
+      </c>
+      <c r="E184">
+        <v>27160</v>
+      </c>
+      <c r="F184">
+        <v>27098</v>
+      </c>
+      <c r="G184">
+        <v>27160</v>
+      </c>
+      <c r="H184">
+        <v>27244</v>
+      </c>
+    </row>
+    <row r="185" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A185" t="s">
+        <v>27</v>
+      </c>
+      <c r="B185">
+        <v>24722</v>
+      </c>
+      <c r="C185">
+        <v>24650</v>
+      </c>
+      <c r="D185">
+        <v>24714</v>
+      </c>
+      <c r="E185">
+        <v>24722</v>
+      </c>
+      <c r="F185">
+        <v>24655</v>
+      </c>
+      <c r="G185">
+        <v>24722</v>
+      </c>
+      <c r="H185">
+        <v>24696</v>
+      </c>
+    </row>
+    <row r="186" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A186" t="s">
+        <v>121</v>
+      </c>
+      <c r="B186">
+        <v>116</v>
+      </c>
+      <c r="C186">
+        <v>116</v>
+      </c>
+      <c r="D186">
+        <v>116</v>
+      </c>
+      <c r="E186">
+        <v>116</v>
+      </c>
+      <c r="F186">
+        <v>116</v>
+      </c>
+      <c r="G186">
+        <v>116</v>
+      </c>
+      <c r="H186">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="187" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A187" t="s">
+        <v>116</v>
+      </c>
+      <c r="B187">
+        <v>1264854</v>
+      </c>
+      <c r="C187">
+        <v>1279310</v>
+      </c>
+      <c r="D187">
+        <v>1265694</v>
+      </c>
+      <c r="E187">
+        <v>1264854</v>
+      </c>
+      <c r="F187">
+        <v>1279174</v>
+      </c>
+      <c r="G187">
+        <v>1264854</v>
+      </c>
+      <c r="H187">
+        <v>1282475</v>
+      </c>
+    </row>
+    <row r="188" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A188" t="s">
+        <v>127</v>
+      </c>
+      <c r="B188">
+        <f t="shared" ref="B188:H189" si="9">B184/2932</f>
+        <v>9.2633015006821289</v>
+      </c>
+      <c r="C188">
+        <f t="shared" si="9"/>
+        <v>9.2407912687585263</v>
+      </c>
+      <c r="D188">
+        <f t="shared" si="9"/>
+        <v>9.2677353342428379</v>
+      </c>
+      <c r="E188">
+        <f t="shared" si="9"/>
+        <v>9.2633015006821289</v>
+      </c>
+      <c r="F188">
+        <f t="shared" si="9"/>
+        <v>9.2421555252387453</v>
+      </c>
+      <c r="G188">
+        <f t="shared" si="9"/>
+        <v>9.2633015006821289</v>
+      </c>
+      <c r="H188">
+        <f t="shared" si="9"/>
+        <v>9.2919508867667115</v>
+      </c>
+    </row>
+    <row r="189" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A189" t="s">
+        <v>126</v>
+      </c>
+      <c r="B189">
+        <f t="shared" si="9"/>
+        <v>8.4317871759890863</v>
+      </c>
+      <c r="C189">
+        <f t="shared" si="9"/>
+        <v>8.4072305593451571</v>
+      </c>
+      <c r="D189">
+        <f t="shared" si="9"/>
+        <v>8.4290586630286501</v>
+      </c>
+      <c r="E189">
+        <f t="shared" si="9"/>
+        <v>8.4317871759890863</v>
+      </c>
+      <c r="F189">
+        <f t="shared" si="9"/>
+        <v>8.4089358799454299</v>
+      </c>
+      <c r="G189">
+        <f t="shared" si="9"/>
+        <v>8.4317871759890863</v>
+      </c>
+      <c r="H189">
+        <f t="shared" si="9"/>
+        <v>8.4229195088676665</v>
+      </c>
+    </row>
+    <row r="190" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A190" t="s">
+        <v>125</v>
+      </c>
+      <c r="B190">
+        <f t="shared" ref="B190:H190" si="10">B186/2932 * 1000</f>
+        <v>39.563437926330153</v>
+      </c>
+      <c r="C190">
+        <f t="shared" si="10"/>
+        <v>39.563437926330153</v>
+      </c>
+      <c r="D190">
+        <f t="shared" si="10"/>
+        <v>39.563437926330153</v>
+      </c>
+      <c r="E190">
+        <f t="shared" si="10"/>
+        <v>39.563437926330153</v>
+      </c>
+      <c r="F190">
+        <f t="shared" si="10"/>
+        <v>39.563437926330153</v>
+      </c>
+      <c r="G190">
+        <f t="shared" si="10"/>
+        <v>39.563437926330153</v>
+      </c>
+      <c r="H190">
+        <f t="shared" si="10"/>
+        <v>39.563437926330153</v>
+      </c>
+    </row>
+    <row r="191" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A191" t="s">
+        <v>128</v>
+      </c>
+      <c r="B191">
+        <f t="shared" ref="B191:H191" si="11">B187/2932</f>
+        <v>431.3963165075034</v>
+      </c>
+      <c r="C191">
+        <f t="shared" si="11"/>
+        <v>436.32673942701228</v>
+      </c>
+      <c r="D191">
+        <f t="shared" si="11"/>
+        <v>431.68281036834924</v>
+      </c>
+      <c r="E191">
+        <f t="shared" si="11"/>
+        <v>431.3963165075034</v>
+      </c>
+      <c r="F191">
+        <f t="shared" si="11"/>
+        <v>436.28035470668488</v>
+      </c>
+      <c r="G191">
+        <f t="shared" si="11"/>
+        <v>431.3963165075034</v>
+      </c>
+      <c r="H191">
+        <f t="shared" si="11"/>
+        <v>437.40620736698497</v>
       </c>
     </row>
   </sheetData>

--- a/Output/Test/Benchmarks.xlsx
+++ b/Output/Test/Benchmarks.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sophi\Antarctic-Food-Optimisation\Output\Test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{426EEFDB-1A4B-4B1C-A015-81C244A137B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{808181EF-26E5-43F9-80AF-67574732FDE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{472969AF-E492-4476-AC40-D4572065F633}"/>
   </bookViews>
@@ -10315,7 +10315,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{640751DF-F8E9-40E7-8456-464868000FDC}">
   <dimension ref="A1:AJ191"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A176" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A151" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="I189" sqref="I189"/>
     </sheetView>
   </sheetViews>
